--- a/NformTester/NformTester/keywordscripts/TST541_SelectInvalidDurationDateForPlottingGraphAndViewGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST541_SelectInvalidDurationDateForPlottingGraphAndViewGraph.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="874">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3899,6 +3899,14 @@
   </si>
   <si>
     <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4136,7 +4144,35 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4455,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4665,7 +4701,7 @@
         <v>60</v>
       </c>
       <c r="B7" s="4">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4694,37 +4730,27 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
@@ -4734,19 +4760,25 @@
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -4756,24 +4788,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>76</v>
+        <v>872</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -4785,27 +4815,37 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -4813,22 +4853,14 @@
       <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -4847,17 +4879,17 @@
       <c r="D13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -4876,11 +4908,11 @@
       <c r="D14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
+      <c r="E14" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>1</v>
@@ -4905,17 +4937,19 @@
       <c r="D15" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>36</v>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -4934,17 +4968,17 @@
       <c r="D16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>36</v>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4967,7 +5001,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>1</v>
@@ -4992,11 +5026,11 @@
       <c r="D18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
+      <c r="E18" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>1</v>
@@ -5021,17 +5055,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -5039,7 +5075,7 @@
       <c r="N19" s="7"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="15">
+    <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -5047,13 +5083,19 @@
       <c r="C20" s="5">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -5073,11 +5115,11 @@
       <c r="D21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>8</v>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>1</v>
@@ -5096,23 +5138,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="11">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>870</v>
-      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -5120,23 +5156,17 @@
       <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15">
       <c r="C23" s="5">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11"/>
+      <c r="D23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -5156,13 +5186,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -5178,19 +5208,19 @@
         <v>76</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="11">
         <v>2</v>
       </c>
-      <c r="I25" s="11">
-        <v>1</v>
+      <c r="I25" s="5" t="s">
+        <v>870</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5199,18 +5229,24 @@
       <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="C26" s="5">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -5226,18 +5262,16 @@
         <v>76</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -5256,15 +5290,17 @@
         <v>36</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -5272,22 +5308,16 @@
       <c r="N28" s="7"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="C29" s="5">
         <v>28</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
@@ -5297,17 +5327,25 @@
       <c r="N29" s="7"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15">
       <c r="C30" s="5">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11"/>
+      <c r="D30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -5316,17 +5354,25 @@
       <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="5">
         <v>30</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="11"/>
+      <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -5343,13 +5389,13 @@
         <v>76</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -5360,28 +5406,18 @@
       <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="5">
         <v>32</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5389,25 +5425,17 @@
       <c r="N33" s="7"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" ht="15">
       <c r="C34" s="5">
         <v>33</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -5427,14 +5455,12 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>103</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -5454,15 +5480,17 @@
         <v>8</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -5481,12 +5509,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I37" s="11"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -5495,17 +5525,25 @@
       <c r="N37" s="7"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="11"/>
+      <c r="D38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="I38" s="11"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -5525,36 +5563,38 @@
         <v>8</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="J39" s="5">
-        <v>24</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="7"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="3:15" ht="15">
+    <row r="40" spans="3:15">
       <c r="C40" s="5">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
+      <c r="D40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -5564,22 +5604,16 @@
       <c r="N40" s="7"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" ht="15">
       <c r="C41" s="5">
         <v>40</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D41" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="5"/>
@@ -5600,43 +5634,37 @@
         <v>8</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="J42" s="5">
+        <v>24</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="7"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" ht="15">
       <c r="C43" s="5">
         <v>42</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5656,14 +5684,12 @@
         <v>8</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -5683,15 +5709,17 @@
         <v>8</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I45" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -5710,12 +5738,14 @@
         <v>8</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I46" s="11"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -5724,17 +5754,25 @@
       <c r="N46" s="7"/>
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="3:15" ht="15">
+    <row r="47" spans="3:15">
       <c r="C47" s="5">
         <v>46</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="11"/>
+      <c r="D47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="I47" s="11"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -5754,36 +5792,38 @@
         <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="7"/>
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="3:15" ht="15">
+    <row r="49" spans="3:15">
       <c r="C49" s="5">
         <v>48</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="D49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="5"/>
@@ -5793,22 +5833,16 @@
       <c r="N49" s="7"/>
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" ht="15">
       <c r="C50" s="5">
         <v>49</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D50" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="5"/>
@@ -5829,43 +5863,37 @@
         <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="7"/>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" ht="15">
       <c r="C52" s="5">
         <v>51</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D52" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -5885,14 +5913,12 @@
         <v>8</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -5912,15 +5938,17 @@
         <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I54" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -5939,12 +5967,14 @@
         <v>8</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -5953,17 +5983,25 @@
       <c r="N55" s="7"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="3:15" ht="15">
+    <row r="56" spans="3:15">
       <c r="C56" s="5">
         <v>55</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="11"/>
+      <c r="D56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="I56" s="11"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -5983,17 +6021,15 @@
         <v>8</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="11">
-        <v>31</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -6001,16 +6037,22 @@
       <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="3:15" ht="15">
+    <row r="58" spans="3:15">
       <c r="C58" s="5">
         <v>57</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="5"/>
@@ -6020,22 +6062,16 @@
       <c r="N58" s="7"/>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" ht="15">
       <c r="C59" s="5">
         <v>58</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="5"/>
@@ -6056,16 +6092,16 @@
         <v>8</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="11" t="b">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="I60" s="11">
+        <v>31</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -6074,25 +6110,17 @@
       <c r="N60" s="7"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" ht="15">
       <c r="C61" s="5">
         <v>60</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -6112,14 +6140,12 @@
         <v>8</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -6139,15 +6165,17 @@
         <v>8</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I63" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I63" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -6166,12 +6194,14 @@
         <v>8</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I64" s="11"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -6180,17 +6210,25 @@
       <c r="N64" s="7"/>
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="3:15" ht="15">
+    <row r="65" spans="3:15">
       <c r="C65" s="5">
         <v>64</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="11"/>
+      <c r="D65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="I65" s="11"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -6210,17 +6248,15 @@
         <v>8</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="11">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I66" s="11"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -6228,16 +6264,22 @@
       <c r="N66" s="7"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="3:15" ht="15">
+    <row r="67" spans="3:15">
       <c r="C67" s="5">
         <v>66</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="D67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="5"/>
@@ -6247,22 +6289,16 @@
       <c r="N67" s="7"/>
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="3:15">
+    <row r="68" spans="3:15" ht="15">
       <c r="C68" s="5">
         <v>67</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="5"/>
@@ -6283,15 +6319,15 @@
         <v>8</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="11" t="b">
+        <v>96</v>
+      </c>
+      <c r="I69" s="11">
         <v>1</v>
       </c>
       <c r="J69" s="5"/>
@@ -6301,25 +6337,17 @@
       <c r="N69" s="7"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" ht="15">
       <c r="C70" s="5">
         <v>69</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -6339,14 +6367,12 @@
         <v>8</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -6366,15 +6392,17 @@
         <v>8</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I72" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -6393,12 +6421,14 @@
         <v>8</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I73" s="11"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -6407,17 +6437,25 @@
       <c r="N73" s="7"/>
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="3:15" ht="15">
+    <row r="74" spans="3:15">
       <c r="C74" s="5">
         <v>73</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="11"/>
+      <c r="D74" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="I74" s="11"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -6437,17 +6475,15 @@
         <v>8</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I75" s="11">
-        <v>12</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I75" s="11"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -6455,16 +6491,22 @@
       <c r="N75" s="7"/>
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="3:15" ht="15">
+    <row r="76" spans="3:15">
       <c r="C76" s="5">
         <v>75</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="D76" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="5"/>
@@ -6474,22 +6516,16 @@
       <c r="N76" s="7"/>
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="3:15">
+    <row r="77" spans="3:15" ht="15">
       <c r="C77" s="5">
         <v>76</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D77" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6510,16 +6546,16 @@
         <v>8</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I78" s="11" t="b">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="I78" s="11">
+        <v>12</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
@@ -6528,25 +6564,17 @@
       <c r="N78" s="7"/>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="3:15">
+    <row r="79" spans="3:15" ht="15">
       <c r="C79" s="5">
         <v>78</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D79" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -6566,14 +6594,12 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H80" s="11"/>
       <c r="I80" s="11"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -6593,15 +6619,17 @@
         <v>8</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I81" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -6620,12 +6648,14 @@
         <v>8</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I82" s="11"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -6634,17 +6664,25 @@
       <c r="N82" s="7"/>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="3:15" ht="15">
+    <row r="83" spans="3:15">
       <c r="C83" s="5">
         <v>82</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="11"/>
+      <c r="D83" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="I83" s="11"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
@@ -6664,17 +6702,15 @@
         <v>8</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I84" s="11">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I84" s="11"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -6682,16 +6718,22 @@
       <c r="N84" s="7"/>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="3:15" ht="15">
+    <row r="85" spans="3:15">
       <c r="C85" s="5">
         <v>84</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="D85" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
       <c r="J85" s="5"/>
@@ -6701,22 +6743,16 @@
       <c r="N85" s="7"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="3:15">
+    <row r="86" spans="3:15" ht="15">
       <c r="C86" s="5">
         <v>85</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D86" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="5"/>
@@ -6737,15 +6773,15 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I87" s="11" t="b">
+        <v>96</v>
+      </c>
+      <c r="I87" s="11">
         <v>1</v>
       </c>
       <c r="J87" s="5"/>
@@ -6755,25 +6791,17 @@
       <c r="N87" s="7"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="15">
       <c r="C88" s="5">
         <v>87</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="D88" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -6793,14 +6821,12 @@
         <v>8</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H89" s="11"/>
       <c r="I89" s="11"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -6820,15 +6846,17 @@
         <v>8</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I90" s="11"/>
+        <v>95</v>
+      </c>
+      <c r="I90" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -6847,12 +6875,14 @@
         <v>8</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="I91" s="11"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -6861,17 +6891,25 @@
       <c r="N91" s="7"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="3:15" ht="15">
+    <row r="92" spans="3:15">
       <c r="C92" s="5">
         <v>91</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E92" s="11"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="11"/>
+      <c r="D92" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="I92" s="11"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
@@ -6891,17 +6929,15 @@
         <v>8</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I93" s="11">
-        <v>5</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I93" s="11"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -6909,16 +6945,22 @@
       <c r="N93" s="7"/>
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="3:15" ht="15">
+    <row r="94" spans="3:15">
       <c r="C94" s="5">
         <v>93</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
+      <c r="D94" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
       <c r="J94" s="5"/>
@@ -6933,7 +6975,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="5"/>
@@ -6958,13 +7000,17 @@
         <v>8</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I96" s="11">
+        <v>5</v>
+      </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -6972,25 +7018,17 @@
       <c r="N96" s="7"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="3:15">
+    <row r="97" spans="3:15" ht="15">
       <c r="C97" s="5">
         <v>96</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="D97" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
@@ -6999,25 +7037,17 @@
       <c r="N97" s="7"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="3:15">
+    <row r="98" spans="3:15" ht="15">
       <c r="C98" s="5">
         <v>97</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>868</v>
-      </c>
+      <c r="D98" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="11"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -7037,14 +7067,12 @@
         <v>8</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>126</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -7064,13 +7092,13 @@
         <v>8</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>868</v>
+        <v>125</v>
       </c>
       <c r="I100" s="11"/>
       <c r="J100" s="5"/>
@@ -7091,12 +7119,14 @@
         <v>8</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H101" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>868</v>
+      </c>
       <c r="I101" s="11"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -7105,17 +7135,25 @@
       <c r="N101" s="7"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="3:15" ht="15">
+    <row r="102" spans="3:15">
       <c r="C102" s="5">
         <v>101</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" s="11"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="11"/>
+      <c r="D102" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="I102" s="11"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -7135,20 +7173,16 @@
         <v>8</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="J103" s="19" t="s">
-        <v>97</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -7166,20 +7200,14 @@
         <v>8</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="J104" s="19" t="s">
-        <v>127</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -7191,7 +7219,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="5"/>
@@ -7216,14 +7244,20 @@
         <v>8</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="J106" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -7241,41 +7275,37 @@
         <v>8</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I107" s="11"/>
-      <c r="J107" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="7"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="3:15">
+    <row r="108" spans="3:15" ht="15">
       <c r="C108" s="5">
         <v>107</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>868</v>
-      </c>
+      <c r="D108" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
@@ -7295,14 +7325,12 @@
         <v>8</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
@@ -7322,13 +7350,13 @@
         <v>8</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>868</v>
+        <v>126</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="5"/>
@@ -7349,12 +7377,14 @@
         <v>8</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H111" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H111" s="11" t="s">
+        <v>868</v>
+      </c>
       <c r="I111" s="11"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
@@ -7363,17 +7393,25 @@
       <c r="N111" s="7"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="3:15" ht="15">
+    <row r="112" spans="3:15">
       <c r="C112" s="5">
         <v>111</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="11"/>
+      <c r="D112" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="I112" s="11"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -7393,20 +7431,16 @@
         <v>8</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="J113" s="19" t="s">
-        <v>127</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I113" s="11"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
@@ -7424,20 +7458,14 @@
         <v>8</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="J114" s="19" t="s">
-        <v>97</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
@@ -7449,7 +7477,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="5"/>
@@ -7474,14 +7502,20 @@
         <v>8</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J116" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
@@ -7499,41 +7533,37 @@
         <v>8</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I117" s="11"/>
-      <c r="J117" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="J117" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="7"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="3:15">
+    <row r="118" spans="3:15" ht="15">
       <c r="C118" s="5">
         <v>117</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>868</v>
-      </c>
+      <c r="D118" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="11"/>
       <c r="I118" s="11"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -7553,14 +7583,12 @@
         <v>8</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
@@ -7580,13 +7608,13 @@
         <v>8</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>868</v>
+        <v>128</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="5"/>
@@ -7607,12 +7635,14 @@
         <v>8</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H121" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>868</v>
+      </c>
       <c r="I121" s="11"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
@@ -7621,17 +7651,25 @@
       <c r="N121" s="7"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="3:15" ht="15">
+    <row r="122" spans="3:15">
       <c r="C122" s="5">
         <v>121</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" s="11"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="11"/>
+      <c r="D122" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="I122" s="11"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
@@ -7651,20 +7689,16 @@
         <v>8</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="J123" s="19" t="s">
-        <v>98</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="I123" s="11"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -7682,51 +7716,33 @@
         <v>8</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="J124" s="19" t="s">
-        <v>869</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="7"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="3:15">
+    <row r="125" spans="3:15" ht="15">
       <c r="C125" s="5">
         <v>124</v>
       </c>
-      <c r="D125" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="J125" s="19" t="s">
-        <v>97</v>
-      </c>
+      <c r="D125" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" s="11"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -7744,7 +7760,7 @@
         <v>8</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>4</v>
@@ -7753,10 +7769,10 @@
         <v>96</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J126" s="19" t="s">
-        <v>869</v>
+        <v>98</v>
       </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -7764,19 +7780,31 @@
       <c r="N126" s="7"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="3:15" ht="15">
+    <row r="127" spans="3:15">
       <c r="C127" s="5">
         <v>126</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E127" s="11"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
+      <c r="D127" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H127" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="J127" s="19" t="s">
+        <v>869</v>
+      </c>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -7788,18 +7816,26 @@
         <v>127</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F128" s="5">
-        <v>2</v>
-      </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H128" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="J128" s="19" t="s">
+        <v>97</v>
+      </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -7817,38 +7853,38 @@
         <v>8</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
-      <c r="J129" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="J129" s="19" t="s">
+        <v>869</v>
+      </c>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="7"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="3:15">
+    <row r="130" spans="3:15" ht="15">
       <c r="C130" s="5">
         <v>129</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="D130" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E130" s="11"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
       <c r="H130" s="11"/>
-      <c r="I130" s="11"/>
+      <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -7861,51 +7897,47 @@
         <v>130</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G131" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" s="5">
         <v>2</v>
       </c>
-      <c r="H131" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="G131" s="5"/>
+      <c r="H131" s="11"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
-      <c r="N131" s="17"/>
+      <c r="N131" s="7"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="3:15" ht="14.25">
+    <row r="132" spans="3:15">
       <c r="C132" s="5">
         <v>131</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H132" s="18"/>
-      <c r="I132" s="5"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
-      <c r="N132" s="17"/>
+      <c r="N132" s="7"/>
       <c r="O132" s="2"/>
     </row>
     <row r="133" spans="3:15">
@@ -7913,24 +7945,24 @@
         <v>132</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H133" s="11"/>
-      <c r="I133" s="5"/>
+      <c r="I133" s="11"/>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
-      <c r="N133" s="17"/>
+      <c r="N133" s="7"/>
       <c r="O133" s="2"/>
     </row>
     <row r="134" spans="3:15">
@@ -7944,58 +7976,90 @@
         <v>88</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
-      <c r="N134" s="7"/>
+      <c r="N134" s="17"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="3:15">
-      <c r="C135" s="16"/>
-      <c r="D135" s="8"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
+    <row r="135" spans="3:15" ht="14.25">
+      <c r="C135" s="5">
+        <v>134</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" s="18"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
-      <c r="N135" s="7"/>
+      <c r="N135" s="17"/>
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="3:15">
-      <c r="C136" s="16"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
+      <c r="C136" s="5">
+        <v>135</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="H136" s="11"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
-      <c r="N136" s="7"/>
+      <c r="N136" s="17"/>
       <c r="O136" s="2"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="16"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
+      <c r="C137" s="5">
+        <v>136</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -8006,10 +8070,10 @@
     <row r="138" spans="3:15">
       <c r="C138" s="16"/>
       <c r="D138" s="8"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -8022,8 +8086,8 @@
       <c r="C139" s="16"/>
       <c r="D139" s="8"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -8051,10 +8115,10 @@
     <row r="141" spans="3:15">
       <c r="C141" s="16"/>
       <c r="D141" s="8"/>
-      <c r="E141" s="11"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="11"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -8067,9 +8131,9 @@
       <c r="C142" s="16"/>
       <c r="D142" s="8"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="11"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -8077,35 +8141,82 @@
       <c r="M142" s="5"/>
       <c r="N142" s="7"/>
     </row>
+    <row r="143" spans="3:15">
+      <c r="D143" s="8"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="5"/>
+      <c r="N143" s="7"/>
+    </row>
+    <row r="144" spans="3:15">
+      <c r="D144" s="8"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="7"/>
+    </row>
+    <row r="145" spans="4:14">
+      <c r="D145" s="8"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="5"/>
+      <c r="N145" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N142">
-    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N145">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N131:N133">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N134:N136">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D137:D138 D129:D130 D135 D19 D8 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D140:D141 D132:D133 D138 D22 D11 D3:D4">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:G142 G2:G130">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G135:G145 G2:G133">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F145">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E145">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TST541_SelectInvalidDurationDateForPlottingGraphAndViewGraph.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST541_SelectInvalidDurationDateForPlottingGraphAndViewGraph.xlsx
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7525" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7538" uniqueCount="876">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3895,18 +3895,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Pause</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4086,7 +4096,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4127,9 +4137,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4144,49 +4151,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4491,10 +4456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4676,7 +4641,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="10">
-        <v>41079</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4723,9 +4688,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>872</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4747,16 +4712,14 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4778,20 +4741,24 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F10" s="11">
         <v>2</v>
@@ -4803,14 +4770,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -4828,10 +4793,10 @@
         <v>83</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>86</v>
@@ -4847,7 +4812,7 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -4870,7 +4835,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -4899,7 +4864,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -4928,7 +4893,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -4947,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -4959,7 +4924,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -4987,10 +4952,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5018,7 +4983,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5045,11 +5010,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5077,9 +5040,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5106,7 +5071,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5134,6 +5099,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5220,7 +5189,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -5488,10 +5457,12 @@
       <c r="H36" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5"/>
+      <c r="I36" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J36" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -5717,10 +5688,12 @@
       <c r="H45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="5"/>
+      <c r="I45" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J45" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -5946,10 +5919,12 @@
       <c r="H54" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5"/>
+      <c r="I54" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J54" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -6100,10 +6075,12 @@
       <c r="H60" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J60" s="11">
         <v>31</v>
       </c>
-      <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -6173,10 +6150,12 @@
       <c r="H63" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I63" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5"/>
+      <c r="I63" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J63" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -6327,10 +6306,12 @@
       <c r="H69" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I69" s="11">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5"/>
+      <c r="I69" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J69" s="11">
+        <v>1</v>
+      </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -6400,10 +6381,12 @@
       <c r="H72" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I72" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5"/>
+      <c r="I72" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J72" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -6554,10 +6537,12 @@
       <c r="H78" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J78" s="11">
         <v>12</v>
       </c>
-      <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -6627,10 +6612,12 @@
       <c r="H81" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I81" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" s="5"/>
+      <c r="I81" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J81" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -6781,10 +6768,12 @@
       <c r="H87" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I87" s="11">
-        <v>1</v>
-      </c>
-      <c r="J87" s="5"/>
+      <c r="I87" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J87" s="11">
+        <v>1</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -6854,10 +6843,12 @@
       <c r="H90" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I90" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" s="5"/>
+      <c r="I90" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J90" s="11" t="b">
+        <v>1</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -7008,10 +6999,12 @@
       <c r="H96" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="J96" s="11">
         <v>5</v>
       </c>
-      <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -7255,7 +7248,7 @@
       <c r="I106" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="J106" s="19" t="s">
+      <c r="J106" s="18" t="s">
         <v>97</v>
       </c>
       <c r="K106" s="5"/>
@@ -7286,7 +7279,7 @@
       <c r="I107" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="J107" s="19" t="s">
+      <c r="J107" s="18" t="s">
         <v>127</v>
       </c>
       <c r="K107" s="5"/>
@@ -7513,7 +7506,7 @@
       <c r="I116" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="J116" s="19" t="s">
+      <c r="J116" s="18" t="s">
         <v>127</v>
       </c>
       <c r="K116" s="5"/>
@@ -7544,7 +7537,7 @@
       <c r="I117" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="J117" s="19" t="s">
+      <c r="J117" s="18" t="s">
         <v>97</v>
       </c>
       <c r="K117" s="5"/>
@@ -7771,7 +7764,7 @@
       <c r="I126" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="J126" s="19" t="s">
+      <c r="J126" s="18" t="s">
         <v>98</v>
       </c>
       <c r="K126" s="5"/>
@@ -7802,7 +7795,7 @@
       <c r="I127" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="J127" s="19" t="s">
+      <c r="J127" s="18" t="s">
         <v>869</v>
       </c>
       <c r="K127" s="5"/>
@@ -7833,7 +7826,7 @@
       <c r="I128" s="5" t="s">
         <v>860</v>
       </c>
-      <c r="J128" s="19" t="s">
+      <c r="J128" s="18" t="s">
         <v>97</v>
       </c>
       <c r="K128" s="5"/>
@@ -7864,7 +7857,7 @@
       <c r="I129" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="J129" s="19" t="s">
+      <c r="J129" s="18" t="s">
         <v>869</v>
       </c>
       <c r="K129" s="5"/>
@@ -7989,7 +7982,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
-      <c r="N134" s="17"/>
+      <c r="N134" s="16"/>
       <c r="O134" s="2"/>
     </row>
     <row r="135" spans="3:15" ht="14.25">
@@ -8008,13 +8001,13 @@
       <c r="G135" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H135" s="18"/>
+      <c r="H135" s="17"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
-      <c r="N135" s="17"/>
+      <c r="N135" s="16"/>
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="3:15">
@@ -8039,7 +8032,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
-      <c r="N136" s="17"/>
+      <c r="N136" s="16"/>
       <c r="O136" s="2"/>
     </row>
     <row r="137" spans="3:15">
@@ -8067,156 +8060,27 @@
       <c r="N137" s="7"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="3:15">
-      <c r="C138" s="16"/>
-      <c r="D138" s="8"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="3:15">
-      <c r="C139" s="16"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="3:15">
-      <c r="C140" s="16"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="3:15">
-      <c r="C141" s="16"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="3:15">
-      <c r="C142" s="16"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="7"/>
-    </row>
-    <row r="143" spans="3:15">
-      <c r="D143" s="8"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="7"/>
-    </row>
-    <row r="144" spans="3:15">
-      <c r="D144" s="8"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="7"/>
-    </row>
-    <row r="145" spans="4:14">
-      <c r="D145" s="8"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N145">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N137">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N134:N136">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D140:D141 D132:D133 D138 D22 D11 D3:D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G133 G135:G137">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F137">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D132:D133 D3:D4 D11 D22">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G135:G145 G2:G133">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9 F11:F145">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E137">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -29515,7 +29379,7 @@
       </c>
     </row>
     <row r="9" spans="1:1014">
-      <c r="CI9" s="20" t="s">
+      <c r="CI9" s="19" t="s">
         <v>857</v>
       </c>
       <c r="IJ9" t="s">
